--- a/Excel/TI/Mon_TI_2024_02_29.xlsx
+++ b/Excel/TI/Mon_TI_2024_02_29.xlsx
@@ -636,7 +636,11 @@
           <t>Anthony Davis</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>C</t>
@@ -946,7 +950,11 @@
           <t>LeBron James</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>F</t>
@@ -1552,67 +1560,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Trae Young</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Bam Adebayo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>25.4</v>
+        <v>39.2</v>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="H8" t="n">
-        <v>37.6</v>
+        <v>38.1</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>51</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="R8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1621,24 +1621,28 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>37</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>56</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1652,32 +1656,32 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1687,7 +1691,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1696,7 +1700,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1704,59 +1708,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>39.2</v>
+        <v>29.2</v>
       </c>
       <c r="G9" t="n">
-        <v>34.7</v>
+        <v>33.8</v>
       </c>
       <c r="H9" t="n">
-        <v>38.1</v>
+        <v>30.7</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="R9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1765,28 +1769,24 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>26</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>29</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -1800,32 +1800,32 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1852,12 +1852,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1866,71 +1866,83 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>29.2</v>
+        <v>26.6</v>
       </c>
       <c r="G10" t="n">
-        <v>33.8</v>
+        <v>31.6</v>
       </c>
       <c r="H10" t="n">
-        <v>30.7</v>
+        <v>31.2</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O10" t="n">
-        <v>45</v>
-      </c>
-      <c r="P10" t="n">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -1949,17 +1961,17 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1969,94 +1981,90 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>26.6</v>
+        <v>27.6</v>
       </c>
       <c r="G11" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="H11" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="O11" t="n">
-        <v>40</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
-        <v>32</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="R11" t="n">
+        <v>38</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2065,18 +2073,16 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>27</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2100,42 +2106,42 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2144,128 +2150,120 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>-14.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>6</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>27.6</v>
+        <v>31.2</v>
       </c>
       <c r="G12" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="H12" t="n">
-        <v>30.4</v>
+        <v>35.4</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O12" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P12" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R12" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>43</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>40</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2275,7 +2273,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2285,16 +2283,16 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>3.6</v>
+        <v>-1.2</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2302,59 +2300,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>31.2</v>
+        <v>25.4</v>
       </c>
       <c r="G13" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="H13" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="n">
-        <v>40</v>
-      </c>
       <c r="O13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="n">
         <v>26</v>
       </c>
       <c r="R13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2363,7 +2361,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2372,23 +2370,27 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z13" t="n">
-        <v>40</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2397,29 +2399,29 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
           <t>@</t>
@@ -2427,7 +2429,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2436,7 +2438,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.2</v>
+        <v>-2.7</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2444,29 +2446,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F14" t="n">
-        <v>25.4</v>
+        <v>30.8</v>
       </c>
       <c r="G14" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="H14" t="n">
-        <v>35.2</v>
+        <v>25.7</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
@@ -2475,46 +2481,48 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O14" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R14" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2538,12 +2546,12 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2553,7 +2561,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2563,99 +2571,105 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>30.8</v>
+        <v>38.4</v>
       </c>
       <c r="G15" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="H15" t="n">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>27</v>
-      </c>
-      <c r="O15" t="n">
-        <v>31</v>
-      </c>
-      <c r="P15" t="n">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q15" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="R15" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2690,22 +2704,22 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2715,7 +2729,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2725,23 +2739,19 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>9</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2762,10 +2772,10 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
         <v>29</v>
@@ -2789,7 +2799,7 @@
         <v>39</v>
       </c>
       <c r="O16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" t="n">
         <v>13</v>
@@ -2896,80 +2906,74 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Austin Reaves</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>40</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Deni Avdija</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>72</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
       <c r="U17" t="inlineStr">
         <is>
           <t>-</t>
@@ -3002,22 +3006,22 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -3027,7 +3031,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3037,29 +3041,33 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3068,49 +3076,47 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>24.4</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>28.5</v>
+        <v>25.7</v>
       </c>
       <c r="H18" t="n">
-        <v>25</v>
+        <v>18.3</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O18" t="n">
+        <v>31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="n">
         <v>18</v>
       </c>
-      <c r="P18" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>23</v>
-      </c>
-      <c r="R18" t="n">
-        <v>40</v>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3119,7 +3125,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3154,12 +3160,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3169,7 +3175,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3179,7 +3185,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3189,7 +3195,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3198,113 +3204,101 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
+        <v>-0.5</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="H19" t="n">
-        <v>18.3</v>
+        <v>20.7</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="P19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>21</v>
+      </c>
+      <c r="R19" t="n">
+        <v>37</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
         <v>13</v>
       </c>
-      <c r="Q19" t="n">
-        <v>18</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -3313,17 +3307,17 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3338,12 +3332,12 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3352,7 +3346,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -3360,39 +3354,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F20" t="n">
-        <v>35.2</v>
+        <v>28.2</v>
       </c>
       <c r="G20" t="n">
-        <v>25.6</v>
+        <v>21.3</v>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>23.3</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -3403,28 +3397,20 @@
       <c r="M20" t="n">
         <v>2</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N20" t="n">
+        <v>17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11</v>
+      </c>
+      <c r="P20" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>34</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3433,7 +3419,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3468,12 +3454,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3483,17 +3469,17 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3503,7 +3489,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3512,20 +3498,24 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3536,77 +3526,85 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>8.4</v>
       </c>
       <c r="G21" t="n">
-        <v>25.3</v>
+        <v>20.5</v>
       </c>
       <c r="H21" t="n">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="P21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>13</v>
-      </c>
-      <c r="P21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>21</v>
-      </c>
-      <c r="R21" t="n">
-        <v>37</v>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>13</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X21" t="n">
-        <v>17</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z21" t="n">
-        <v>11</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -3615,7 +3613,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3625,36 +3623,36 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -3662,65 +3660,61 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Fred VanVleet</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>25.4</v>
+        <v>14.8</v>
       </c>
       <c r="G22" t="n">
-        <v>25.1</v>
+        <v>19.3</v>
       </c>
       <c r="H22" t="n">
-        <v>17.8</v>
+        <v>25.8</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N22" t="n">
+        <v>-2</v>
       </c>
       <c r="O22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="n">
-        <v>29</v>
-      </c>
-      <c r="R22" t="n">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3729,28 +3723,24 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>32</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
@@ -3769,17 +3759,17 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -3789,17 +3779,17 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3808,7 +3798,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -3816,12 +3806,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3831,33 +3821,33 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>22.4</v>
+        <v>25.4</v>
       </c>
       <c r="G23" t="n">
-        <v>24.5</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>23.3</v>
+        <v>37.6</v>
       </c>
       <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -3869,20 +3859,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>16</v>
+      </c>
+      <c r="R23" t="n">
+        <v>30</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3891,26 +3875,24 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X23" t="n">
+        <v>56</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
@@ -3929,27 +3911,27 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3959,7 +3941,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -3968,7 +3950,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -3976,17 +3958,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Questionable</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3996,29 +3978,29 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>28.4</v>
+        <v>35.2</v>
       </c>
       <c r="G24" t="n">
-        <v>22.3</v>
+        <v>25.6</v>
       </c>
       <c r="H24" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>-</t>
@@ -4029,102 +4011,106 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>26</v>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R24" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>DEN</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>-1.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4132,72 +4118,74 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Andrew Wiggins</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>28.2</v>
+        <v>25.4</v>
       </c>
       <c r="G25" t="n">
-        <v>21.3</v>
+        <v>25.1</v>
       </c>
       <c r="H25" t="n">
-        <v>23.3</v>
+        <v>17.8</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P25" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R25" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4237,17 +4225,17 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -4257,7 +4245,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4267,36 +4255,36 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>10</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>F</t>
@@ -4304,40 +4292,48 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>8.4</v>
+        <v>22.4</v>
       </c>
       <c r="G26" t="n">
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="H26" t="n">
-        <v>21.4</v>
+        <v>23.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="n">
-        <v>9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -4351,18 +4347,16 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>15</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -4391,46 +4385,46 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
       <c r="AI26" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>2.4</v>
+        <v>-0.8</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -4438,15 +4432,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Tyler Herro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>G</t>
@@ -4454,45 +4452,47 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>14.8</v>
+        <v>28.4</v>
       </c>
       <c r="G27" t="n">
-        <v>19.3</v>
+        <v>22.3</v>
       </c>
       <c r="H27" t="n">
-        <v>25.8</v>
+        <v>26.8</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>21</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>8</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="R27" t="n">
+        <v>24</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4501,24 +4501,28 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X27" t="n">
-        <v>13</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
@@ -4532,12 +4536,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4547,17 +4551,17 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4567,7 +4571,7 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4576,7 +4580,7 @@
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>0.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
